--- a/Documentation/Query/Transaction.xlsx
+++ b/Documentation/Query/Transaction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>Transaction_Id</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Member_ID</t>
   </si>
   <si>
-    <t>Particulars</t>
-  </si>
-  <si>
     <t>Ref_ID</t>
   </si>
   <si>
@@ -104,21 +101,6 @@
     <t>T00-018</t>
   </si>
   <si>
-    <t>T00-019</t>
-  </si>
-  <si>
-    <t>T00-020</t>
-  </si>
-  <si>
-    <t>T00-021</t>
-  </si>
-  <si>
-    <t>T00-022</t>
-  </si>
-  <si>
-    <t>T00-023</t>
-  </si>
-  <si>
     <t>Registeration</t>
   </si>
   <si>
@@ -176,19 +158,25 @@
     <t>Rohan</t>
   </si>
   <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Fine</t>
-  </si>
-  <si>
-    <t>Lost/Scrap</t>
-  </si>
-  <si>
-    <t>Maynak</t>
-  </si>
-  <si>
     <t>Kishan</t>
+  </si>
+  <si>
+    <t>Tra_Detail</t>
+  </si>
+  <si>
+    <t>Memo_Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Narration</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -507,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,13 +508,14 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,474 +538,662 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>42379</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>42384</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>42390</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>42391</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>42392</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>42393</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>42394</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>42395</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>42396</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>42397</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>42398</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>42399</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>42400</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>42401</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>42402</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>42403</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>42404</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>42405</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1">
-        <v>42406</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1">
-        <v>42407</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1">
-        <v>42408</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1">
-        <v>42409</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1">
-        <v>42410</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>54</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
